--- a/Kuzbass_Project/bin/Debug/Шаблоны/ШаблонРеестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Шаблоны/ШаблонРеестр.xlsx
@@ -80,11 +80,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,16 +108,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,36 +444,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
